--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H2">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>8.085270836500476</v>
+        <v>42.1577583942389</v>
       </c>
       <c r="R2">
-        <v>8.085270836500476</v>
+        <v>379.4198255481501</v>
       </c>
       <c r="S2">
-        <v>2.418100129153687E-05</v>
+        <v>0.0001203936041835694</v>
       </c>
       <c r="T2">
-        <v>2.418100129153687E-05</v>
+        <v>0.0001203936041835694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H3">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>604.9606921848756</v>
+        <v>2112.096508512881</v>
       </c>
       <c r="R3">
-        <v>604.9606921848756</v>
+        <v>19008.86857661593</v>
       </c>
       <c r="S3">
-        <v>0.001809284509433101</v>
+        <v>0.006031699044941344</v>
       </c>
       <c r="T3">
-        <v>0.001809284509433101</v>
+        <v>0.006031699044941345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H4">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I4">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J4">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>1.017370247737856</v>
+        <v>3.685643665253334</v>
       </c>
       <c r="R4">
-        <v>1.017370247737856</v>
+        <v>33.17079298728001</v>
       </c>
       <c r="S4">
-        <v>3.042697241935345E-06</v>
+        <v>1.052541552249201E-05</v>
       </c>
       <c r="T4">
-        <v>3.042697241935345E-06</v>
+        <v>1.052541552249201E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H5">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I5">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J5">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>104.7137982127253</v>
+        <v>394.9535275833056</v>
       </c>
       <c r="R5">
-        <v>104.7137982127253</v>
+        <v>3554.58174824975</v>
       </c>
       <c r="S5">
-        <v>0.0003131725010858876</v>
+        <v>0.0011279033914969</v>
       </c>
       <c r="T5">
-        <v>0.0003131725010858876</v>
+        <v>0.0011279033914969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H6">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J6">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>3741.39419168525</v>
+        <v>5642.897874717534</v>
       </c>
       <c r="R6">
-        <v>3741.39419168525</v>
+        <v>50786.08087245781</v>
       </c>
       <c r="S6">
-        <v>0.01118956428433605</v>
+        <v>0.01611491784795388</v>
       </c>
       <c r="T6">
-        <v>0.01118956428433605</v>
+        <v>0.01611491784795388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H7">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J7">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>279940.7052291203</v>
+        <v>282708.2215242824</v>
       </c>
       <c r="R7">
-        <v>279940.7052291203</v>
+        <v>2544373.993718541</v>
       </c>
       <c r="S7">
-        <v>0.8372318864248479</v>
+        <v>0.8073546369174731</v>
       </c>
       <c r="T7">
-        <v>0.8372318864248479</v>
+        <v>0.8073546369174731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H8">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J8">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>470.7799172906004</v>
+        <v>493.3305658980748</v>
       </c>
       <c r="R8">
-        <v>470.7799172906004</v>
+        <v>4439.975093082672</v>
       </c>
       <c r="S8">
-        <v>0.001407983729702851</v>
+        <v>0.001408847318848566</v>
       </c>
       <c r="T8">
-        <v>0.001407983729702851</v>
+        <v>0.001408847318848566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H9">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I9">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J9">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>48455.46974799458</v>
+        <v>52865.29707226063</v>
       </c>
       <c r="R9">
-        <v>48455.46974799458</v>
+        <v>475787.6736503456</v>
       </c>
       <c r="S9">
-        <v>0.1449180615284654</v>
+        <v>0.1509720604982242</v>
       </c>
       <c r="T9">
-        <v>0.1449180615284654</v>
+        <v>0.1509720604982242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H10">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I10">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J10">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>2.290707745061359</v>
+        <v>3.5900427409</v>
       </c>
       <c r="R10">
-        <v>2.290707745061359</v>
+        <v>32.3103846681</v>
       </c>
       <c r="S10">
-        <v>6.85092782443355E-06</v>
+        <v>1.025239958700167E-05</v>
       </c>
       <c r="T10">
-        <v>6.85092782443355E-06</v>
+        <v>1.025239958700167E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H11">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I11">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J11">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>171.3966261698392</v>
+        <v>179.86052928998</v>
       </c>
       <c r="R11">
-        <v>171.3966261698392</v>
+        <v>1618.74476360982</v>
       </c>
       <c r="S11">
-        <v>0.0005126039835385175</v>
+        <v>0.0005136434714836331</v>
       </c>
       <c r="T11">
-        <v>0.0005126039835385175</v>
+        <v>0.000513643471483633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H12">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I12">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J12">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>0.2882399307599203</v>
+        <v>0.3138596260800001</v>
       </c>
       <c r="R12">
-        <v>0.2882399307599203</v>
+        <v>2.82473663472</v>
       </c>
       <c r="S12">
-        <v>8.62052772123946E-07</v>
+        <v>8.963164321526731E-07</v>
       </c>
       <c r="T12">
-        <v>8.62052772123946E-07</v>
+        <v>8.963164321526731E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H13">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I13">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J13">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>29.6673684074761</v>
+        <v>33.6331934785</v>
       </c>
       <c r="R13">
-        <v>29.6673684074761</v>
+        <v>302.6987413065</v>
       </c>
       <c r="S13">
-        <v>8.872759964194151E-05</v>
+        <v>9.604925729716422E-05</v>
       </c>
       <c r="T13">
-        <v>8.872759964194151E-05</v>
+        <v>9.604925729716419E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H14">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I14">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J14">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>9.379475098109655</v>
+        <v>93.89795258822221</v>
       </c>
       <c r="R14">
-        <v>9.379475098109655</v>
+        <v>845.0815732939999</v>
       </c>
       <c r="S14">
-        <v>2.805163909134984E-05</v>
+        <v>0.0002681526098194738</v>
       </c>
       <c r="T14">
-        <v>2.805163909134984E-05</v>
+        <v>0.0002681526098194739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H15">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I15">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J15">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>701.7963729881899</v>
+        <v>4704.271416982977</v>
       </c>
       <c r="R15">
-        <v>701.7963729881899</v>
+        <v>42338.44275284679</v>
       </c>
       <c r="S15">
-        <v>0.002098895552764</v>
+        <v>0.01343440003740153</v>
       </c>
       <c r="T15">
-        <v>0.002098895552764</v>
+        <v>0.01343440003740153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H16">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I16">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J16">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>1.18022006896</v>
+        <v>8.209032152533334</v>
       </c>
       <c r="R16">
-        <v>1.18022006896</v>
+        <v>73.8812893728</v>
       </c>
       <c r="S16">
-        <v>3.529739892321519E-06</v>
+        <v>2.344325232997568E-05</v>
       </c>
       <c r="T16">
-        <v>3.529739892321519E-06</v>
+        <v>2.344325232997568E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H17">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I17">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J17">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>121.475270603284</v>
+        <v>879.6797794788888</v>
       </c>
       <c r="R17">
-        <v>121.475270603284</v>
+        <v>7917.118015309999</v>
       </c>
       <c r="S17">
-        <v>0.0003633018280707572</v>
+        <v>0.002512178617005022</v>
       </c>
       <c r="T17">
-        <v>0.0003633018280707572</v>
+        <v>0.002512178617005022</v>
       </c>
     </row>
   </sheetData>
